--- a/deaths number of female by age group.xlsx
+++ b/deaths number of female by age group.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="396">
   <si>
     <t>年龄</t>
   </si>
@@ -51,7 +51,7 @@
     <t>数据</t>
   </si>
   <si>
-    <t>XVI</t>
+    <t>XVI. CERTAIN CONDITIONS ORIGINATING IN THE PERINATAL PERIOD</t>
   </si>
   <si>
     <t>P20-29</t>
@@ -69,7 +69,10 @@
     <t>P00-P96</t>
   </si>
   <si>
-    <t>XVI. CERTAIN CONDITIONS ORIGINATING IN THE PERINATAL PERIOD</t>
+    <t>围产期</t>
+  </si>
+  <si>
+    <t>围产期特有的呼吸和心血管疾病</t>
   </si>
   <si>
     <t>P21</t>
@@ -117,6 +120,9 @@
     <t>5-19</t>
   </si>
   <si>
+    <t>与妊娠期长短和胎儿生长有关的疾病</t>
+  </si>
+  <si>
     <t>P05</t>
   </si>
   <si>
@@ -147,6 +153,9 @@
     <t>II. NEOPLASMS</t>
   </si>
   <si>
+    <t>围产期特有的感染</t>
+  </si>
+  <si>
     <t>P35</t>
   </si>
   <si>
@@ -171,6 +180,9 @@
     <t>Necrotizing enterocolitis of fetus and newborn</t>
   </si>
   <si>
+    <t>胎儿和新生儿消化系统紊乱</t>
+  </si>
+  <si>
     <t>P78</t>
   </si>
   <si>
@@ -180,9 +192,6 @@
     <t>20-34</t>
   </si>
   <si>
-    <t>XVII.</t>
-  </si>
-  <si>
     <t>Q20-28</t>
   </si>
   <si>
@@ -195,6 +204,12 @@
     <t>Other congenital malformations of heart</t>
   </si>
   <si>
+    <t>先天性畸形和染色体异常</t>
+  </si>
+  <si>
+    <t>先天性循环系统畸形</t>
+  </si>
+  <si>
     <t>Q20</t>
   </si>
   <si>
@@ -219,6 +234,9 @@
     <t>Other congenital malformations of brain</t>
   </si>
   <si>
+    <t>先天性神经系统畸形</t>
+  </si>
+  <si>
     <t>Q00</t>
   </si>
   <si>
@@ -240,6 +258,9 @@
     <t>Congenital malformations of the musculoskeletal system, not elsewhere classified</t>
   </si>
   <si>
+    <t>肌肉骨骼系统的先天性畸形和变形</t>
+  </si>
+  <si>
     <t>Q78</t>
   </si>
   <si>
@@ -264,7 +285,7 @@
     <t>IX. DISEASES OF THE CIRCULATORY SYSTEM</t>
   </si>
   <si>
-    <t>XVIII</t>
+    <t>染色体异常，其他地方未分类</t>
   </si>
   <si>
     <t>R95-99</t>
@@ -279,6 +300,12 @@
     <t>Sudden infant death syndrome</t>
   </si>
   <si>
+    <t>未分类</t>
+  </si>
+  <si>
+    <t>死因不明</t>
+  </si>
+  <si>
     <t>R99</t>
   </si>
   <si>
@@ -288,9 +315,6 @@
     <t>50-79</t>
   </si>
   <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>X60-84</t>
   </si>
   <si>
@@ -303,6 +327,12 @@
     <t>Intentional self-harm by hanging, strangulation and suffocation</t>
   </si>
   <si>
+    <t>外因</t>
+  </si>
+  <si>
+    <t>故意自我伤害</t>
+  </si>
+  <si>
     <t>X63</t>
   </si>
   <si>
@@ -327,6 +357,9 @@
     <t>Accidental poisoning by and exposure to antiepileptic, sedative-hypnotic, antiparkinsonism and psychotropic drugs, not elsewhere classified</t>
   </si>
   <si>
+    <t>意外中毒并接触有毒物质</t>
+  </si>
+  <si>
     <t>X42</t>
   </si>
   <si>
@@ -348,6 +381,9 @@
     <t>Car occupant injured in collision with fixed or stationary object</t>
   </si>
   <si>
+    <t>乘车人在交通事故中受伤</t>
+  </si>
+  <si>
     <t>X85-Y09</t>
   </si>
   <si>
@@ -360,7 +396,7 @@
     <t>Assault by hanging, strangulation and suffocation</t>
   </si>
   <si>
-    <t>II</t>
+    <t>突击</t>
   </si>
   <si>
     <t>C69-72</t>
@@ -375,6 +411,12 @@
     <t>Malignant neoplasm of brain</t>
   </si>
   <si>
+    <t>肿瘤</t>
+  </si>
+  <si>
+    <t>眼睛，大脑和其他中枢神经系统</t>
+  </si>
+  <si>
     <t>C45-49</t>
   </si>
   <si>
@@ -387,6 +429,9 @@
     <t>Malignant neoplasm of other connective and soft tissue</t>
   </si>
   <si>
+    <t>间皮和软组织</t>
+  </si>
+  <si>
     <t>C64-68</t>
   </si>
   <si>
@@ -399,6 +444,9 @@
     <t>Malignant neoplasm of kidney, except renal pelvis</t>
   </si>
   <si>
+    <t>泌尿道</t>
+  </si>
+  <si>
     <t>C73-75</t>
   </si>
   <si>
@@ -411,7 +459,7 @@
     <t>Malignant neoplasm of adrenal gland</t>
   </si>
   <si>
-    <t>VI</t>
+    <t>甲状腺和其他内分泌腺</t>
   </si>
   <si>
     <t>G40-47</t>
@@ -426,6 +474,12 @@
     <t>Epilepsy</t>
   </si>
   <si>
+    <t>神经系统</t>
+  </si>
+  <si>
+    <t>发作性和阵发性疾病</t>
+  </si>
+  <si>
     <t>G80-83</t>
   </si>
   <si>
@@ -438,18 +492,27 @@
     <t>Cerebral palsy</t>
   </si>
   <si>
+    <t>脑瘫和其他麻痹综合征</t>
+  </si>
+  <si>
     <t>G82</t>
   </si>
   <si>
     <t>Paraplegia and tetraplegia</t>
   </si>
   <si>
+    <t>意外中毒或接触有毒物质</t>
+  </si>
+  <si>
     <t>X45</t>
   </si>
   <si>
     <t>Accidental poisoning by and exposure to alcohol</t>
   </si>
   <si>
+    <t>故意自残</t>
+  </si>
+  <si>
     <t>X64</t>
   </si>
   <si>
@@ -474,6 +537,9 @@
     <t>Poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified, undetermined intent</t>
   </si>
   <si>
+    <t>意向未定事件</t>
+  </si>
+  <si>
     <t>Y31</t>
   </si>
   <si>
@@ -492,6 +558,12 @@
     <t>Assault by sharp object</t>
   </si>
   <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>眼睛、大脑和中枢神经系统的其他部分</t>
+  </si>
+  <si>
     <t>C69</t>
   </si>
   <si>
@@ -510,6 +582,9 @@
     <t>Malignant neoplasm of vagina</t>
   </si>
   <si>
+    <t>女性生殖器官</t>
+  </si>
+  <si>
     <t>C54</t>
   </si>
   <si>
@@ -531,6 +606,9 @@
     <t>C50</t>
   </si>
   <si>
+    <t>乳腺恶性肿瘤</t>
+  </si>
+  <si>
     <t>C15-26</t>
   </si>
   <si>
@@ -543,12 +621,18 @@
     <t>Malignant neoplasm of colon</t>
   </si>
   <si>
+    <t>消化器官</t>
+  </si>
+  <si>
     <t>C19</t>
   </si>
   <si>
     <t>Malignant neoplasm of rectosigmoid junction</t>
   </si>
   <si>
+    <t>脑性麻痹</t>
+  </si>
+  <si>
     <t>G00-09</t>
   </si>
   <si>
@@ -561,6 +645,9 @@
     <t>Intracranial and intraspinal abscess and granuloma</t>
   </si>
   <si>
+    <t>中枢神经系统的炎症性疾病</t>
+  </si>
+  <si>
     <t>G30-32</t>
   </si>
   <si>
@@ -573,6 +660,9 @@
     <t>Other degenerative diseases of nervous system, not elsewhere classified</t>
   </si>
   <si>
+    <t>其他神经系统退行性疾病</t>
+  </si>
+  <si>
     <t>G35-37</t>
   </si>
   <si>
@@ -585,6 +675,9 @@
     <t>Other acute disseminated demyelination</t>
   </si>
   <si>
+    <t>中枢神经系统脱髓鞘疾病</t>
+  </si>
+  <si>
     <t>G70-73</t>
   </si>
   <si>
@@ -597,6 +690,9 @@
     <t>Primary disorders of muscles</t>
   </si>
   <si>
+    <t>肌神经节和肌肉疾病</t>
+  </si>
+  <si>
     <t>C20</t>
   </si>
   <si>
@@ -645,6 +741,9 @@
     <t>Malignant neoplasm of bronchus and lung</t>
   </si>
   <si>
+    <t>呼吸和胸内器官</t>
+  </si>
+  <si>
     <t>C32</t>
   </si>
   <si>
@@ -699,6 +798,9 @@
     <t>Car occupant injured in collision with car, pick-up truck or van</t>
   </si>
   <si>
+    <t>汽车乘客在交通事故中受伤</t>
+  </si>
+  <si>
     <t>V48</t>
   </si>
   <si>
@@ -711,9 +813,6 @@
     <t>Assault by unspecified means</t>
   </si>
   <si>
-    <t>IX</t>
-  </si>
-  <si>
     <t>I20-25</t>
   </si>
   <si>
@@ -726,6 +825,12 @@
     <t>Chronic ischaemic heart disease</t>
   </si>
   <si>
+    <t>循环系统</t>
+  </si>
+  <si>
+    <t>缺血性心脏疾病</t>
+  </si>
+  <si>
     <t>I21</t>
   </si>
   <si>
@@ -744,6 +849,9 @@
     <t>Subarachnoid haemorrhage</t>
   </si>
   <si>
+    <t>脑血管疾病</t>
+  </si>
+  <si>
     <t>I69</t>
   </si>
   <si>
@@ -774,6 +882,9 @@
     <t>Complications and ill-defined descriptions of heart disease</t>
   </si>
   <si>
+    <t>其他形式的心脏病</t>
+  </si>
+  <si>
     <t>I34</t>
   </si>
   <si>
@@ -822,6 +933,9 @@
     <t>Phlebitis and thrombophlebitis</t>
   </si>
   <si>
+    <t>静脉、淋巴管和淋巴结疾病，其他未分类</t>
+  </si>
+  <si>
     <t>C31</t>
   </si>
   <si>
@@ -882,6 +996,9 @@
     <t>Aortic aneurysm and dissection</t>
   </si>
   <si>
+    <t>动脉、小动脉和毛细血管疾病</t>
+  </si>
+  <si>
     <t>I73</t>
   </si>
   <si>
@@ -900,9 +1017,6 @@
     <t>Other disorders of arteries and arterioles</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>J40-47</t>
   </si>
   <si>
@@ -915,6 +1029,12 @@
     <t>Other chronic obstructive pulmonary disease</t>
   </si>
   <si>
+    <t>呼吸系统</t>
+  </si>
+  <si>
+    <t>慢性下呼吸道疾病</t>
+  </si>
+  <si>
     <t>J47</t>
   </si>
   <si>
@@ -945,6 +1065,9 @@
     <t>Pneumonia, organism unspecified</t>
   </si>
   <si>
+    <t>流感和肺炎</t>
+  </si>
+  <si>
     <t>J10</t>
   </si>
   <si>
@@ -981,6 +1104,9 @@
     <t>Other interstitial pulmonary diseases</t>
   </si>
   <si>
+    <t>其他呼吸系统疾病，主要影响间质</t>
+  </si>
+  <si>
     <t>J20-22</t>
   </si>
   <si>
@@ -993,6 +1119,9 @@
     <t>Unspecified acute lower respiratory infection</t>
   </si>
   <si>
+    <t>其他急性下呼吸道感染</t>
+  </si>
+  <si>
     <t>J20</t>
   </si>
   <si>
@@ -1017,6 +1146,9 @@
     <t>Hypertensive heart disease</t>
   </si>
   <si>
+    <t>高血压疾病</t>
+  </si>
+  <si>
     <t>I12</t>
   </si>
   <si>
@@ -1051,6 +1183,9 @@
   </si>
   <si>
     <t>Malignant neoplasm, without specification of site</t>
+  </si>
+  <si>
+    <t>定义不清的恶性肿瘤</t>
   </si>
   <si>
     <t>C76</t>
@@ -1076,12 +1211,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1240,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1116,11 +1257,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1131,47 +1271,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1208,14 +1310,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,8 +1353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,6 +1371,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,8 +1399,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,7 +1422,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,121 +1554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,19 +1572,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,19 +1602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,38 +1619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,20 +1651,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,6 +1698,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1580,10 +1721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1592,137 +1733,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,19 +1873,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1759,28 +1909,25 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2131,10 +2278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2152,35 +2299,35 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2188,7 +2335,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2">
@@ -2212,296 +2359,317 @@
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="10">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="7:13">
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="7:13">
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="10">
+      <c r="L4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="13">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="15" spans="7:13">
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" ht="15" spans="4:13">
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6">
         <v>8</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="7:13">
+      <c r="K6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="5:13">
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="K7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="K8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="15">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="7:13">
+    <row r="9" spans="5:13">
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="K9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="4:13">
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I10">
         <v>7</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="7:13">
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="5:13">
+      <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="13"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>54</v>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="6">
         <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12">
         <v>4</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="12">
+      <c r="K12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="15">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="7:13">
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="12">
+      <c r="K13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="15">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="7:13">
       <c r="G14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="12">
+      <c r="K14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="4:13">
       <c r="D15" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -2510,391 +2678,375 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" ht="15" spans="7:13">
+    <row r="16" ht="15" spans="5:13">
+      <c r="E16" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16"/>
-      <c r="K16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="K16" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="4:13">
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="10">
+      <c r="K17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="13">
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="7:13">
+    <row r="18" spans="5:13">
+      <c r="E18" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="K18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="16">
+      <c r="K18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="13">
         <v>263</v>
       </c>
     </row>
     <row r="19" spans="4:13">
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I19">
         <v>4</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="16">
+      <c r="K19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="13">
         <v>94</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:13">
-      <c r="A20" t="s">
+    <row r="20" spans="4:13">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" ht="15" spans="1:13">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20">
+      <c r="D21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20">
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21">
         <v>7</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" ht="15" spans="7:13">
-      <c r="G21" t="s">
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" ht="15" spans="2:13">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15" spans="11:13">
+      <c r="K23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="18">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:13">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I21">
+      <c r="M24" s="18">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="2:13">
+      <c r="B25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25">
         <v>4</v>
       </c>
-      <c r="K21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15" spans="11:13">
-      <c r="K22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="17">
-        <v>4751</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:13">
-      <c r="A23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23">
-        <v>17</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23">
-        <v>9</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" s="18">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="7:13">
-      <c r="G24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="M24" s="18">
+      <c r="K25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="18">
         <v>1470</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="4:13">
-      <c r="D25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25">
+    <row r="26" ht="15" spans="2:13">
+      <c r="B26" s="9"/>
+      <c r="D26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="G25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" ht="15" spans="7:13">
       <c r="G26" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" ht="15" spans="4:13">
-      <c r="D27" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" ht="15" spans="2:13">
+      <c r="B27" s="9"/>
       <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M27" s="14">
-        <v>4774</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="4:13">
+      <c r="K27" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" ht="15" spans="2:13">
+      <c r="B28" s="9"/>
       <c r="D28" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="14">
+      <c r="K28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="17">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="2:13">
+      <c r="B29" s="9"/>
+      <c r="D29" s="4"/>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" ht="15" spans="2:13">
+      <c r="B30" s="9"/>
+      <c r="D30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="17">
         <v>2975</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="2:13">
-      <c r="B29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29">
+    <row r="31" ht="15" spans="2:13">
+      <c r="B31" s="9"/>
+      <c r="D31" s="4"/>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" ht="15" spans="2:13">
+      <c r="B32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
         <v>13</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M29" s="14">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9">
-      <c r="D30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9">
-      <c r="D31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9">
       <c r="D32" s="4" t="s">
         <v>127</v>
       </c>
@@ -2902,7 +3054,7 @@
         <v>128</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>129</v>
@@ -2911,461 +3063,450 @@
         <v>130</v>
       </c>
       <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="17">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="2:13">
+      <c r="B33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="9"/>
+      <c r="D34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G34" t="s">
         <v>135</v>
       </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9">
-      <c r="D34" s="4" t="s">
+      <c r="H34" t="s">
         <v>136</v>
-      </c>
-      <c r="E34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" t="s">
-        <v>139</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="7:9">
-      <c r="G35" t="s">
+    <row r="35" spans="2:5">
+      <c r="B35" s="9"/>
+      <c r="D35" s="4"/>
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="9"/>
+      <c r="D36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
         <v>140</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>141</v>
       </c>
-      <c r="I35">
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="9"/>
+      <c r="D37" s="4"/>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="9"/>
+      <c r="D38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="9"/>
+      <c r="D39" s="4"/>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9">
+      <c r="D42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37">
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45">
         <v>114</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37">
+      <c r="D45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45">
         <v>57</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" t="s">
         <v>103</v>
       </c>
-      <c r="H37" t="s">
-        <v>104</v>
-      </c>
-      <c r="I37">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9">
-      <c r="G38" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I38">
+      <c r="E46" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="7:9">
-      <c r="G39" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9">
-      <c r="D40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9">
-      <c r="G41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="7:9">
-      <c r="G42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="7:9">
-      <c r="G43" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9">
-      <c r="D44" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="7:9">
-      <c r="G45" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" t="s">
-        <v>153</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="7:9">
-      <c r="G46" t="s">
-        <v>154</v>
-      </c>
-      <c r="H46" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9">
-      <c r="D47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
+    <row r="47" spans="7:9">
       <c r="G47" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H47" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I47">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50">
-        <v>38</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
+    <row r="48" spans="4:9">
+      <c r="D48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
+      <c r="E49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9">
       <c r="G50" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="I50">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="7:9">
       <c r="G51" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H51" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="4:9">
       <c r="D52" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="7:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9">
+      <c r="E53" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="G53" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H53" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="7:9">
       <c r="G54" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H54" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="4:9">
       <c r="D55" s="4" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H55" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9">
-      <c r="D56" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E56" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-      <c r="G56" t="s">
-        <v>173</v>
-      </c>
-      <c r="H56" t="s">
-        <v>174</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="7:9">
-      <c r="G57" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" t="s">
-        <v>176</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" t="s">
-        <v>131</v>
+      <c r="B58" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58">
+        <v>38</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H58" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I58">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="4:9">
-      <c r="D59" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
+    <row r="59" spans="2:9">
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="G59" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="4:9">
       <c r="D60" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E60" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="4:9">
-      <c r="D61" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" t="s">
-        <v>182</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9">
+      <c r="E61" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="G61" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H61" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:9">
-      <c r="D62" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
+    <row r="62" spans="7:9">
       <c r="G62" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H62" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3373,1793 +3514,2156 @@
     </row>
     <row r="63" spans="4:9">
       <c r="D63" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" t="s">
+        <v>194</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" s="4"/>
+      <c r="E64" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9">
+      <c r="D65" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" t="s">
+        <v>200</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9">
+      <c r="E66" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" t="s">
+        <v>202</v>
+      </c>
+      <c r="H66" t="s">
+        <v>203</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="4:9">
+      <c r="D69" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" t="s">
+        <v>157</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="4"/>
+      <c r="E70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="4:9">
+      <c r="D71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71">
         <v>1</v>
       </c>
-      <c r="G63" t="s">
-        <v>191</v>
-      </c>
-      <c r="H63" t="s">
-        <v>192</v>
-      </c>
-      <c r="I63">
+      <c r="G71" t="s">
+        <v>207</v>
+      </c>
+      <c r="H71" t="s">
+        <v>208</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66">
-        <v>268</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E66" t="s">
-        <v>169</v>
-      </c>
-      <c r="F66">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s">
-        <v>170</v>
-      </c>
-      <c r="H66" t="s">
-        <v>169</v>
-      </c>
-      <c r="I66">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="4:9">
-      <c r="D67" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E67" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67">
-        <v>53</v>
-      </c>
-      <c r="G67" t="s">
-        <v>173</v>
-      </c>
-      <c r="H67" t="s">
-        <v>174</v>
-      </c>
-      <c r="I67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="7:9">
-      <c r="G68" t="s">
-        <v>193</v>
-      </c>
-      <c r="H68" t="s">
-        <v>194</v>
-      </c>
-      <c r="I68">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="7:9">
-      <c r="G69" t="s">
-        <v>195</v>
-      </c>
-      <c r="H69" t="s">
-        <v>196</v>
-      </c>
-      <c r="I69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="7:9">
-      <c r="G70" t="s">
-        <v>197</v>
-      </c>
-      <c r="H70" t="s">
-        <v>198</v>
-      </c>
-      <c r="I70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="7:9">
-      <c r="G71" t="s">
-        <v>199</v>
-      </c>
-      <c r="H71" t="s">
-        <v>200</v>
-      </c>
-      <c r="I71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="4:9">
-      <c r="D72" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72">
-        <v>44</v>
-      </c>
-      <c r="G72" t="s">
-        <v>162</v>
-      </c>
-      <c r="H72" t="s">
-        <v>163</v>
-      </c>
-      <c r="I72">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="7:9">
+    <row r="72" spans="4:5">
+      <c r="D72" s="4"/>
+      <c r="E72" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="4:9">
+      <c r="D73" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
       <c r="G73" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="H73" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="I73">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="7:9">
-      <c r="G74" t="s">
-        <v>164</v>
-      </c>
-      <c r="H74" t="s">
-        <v>165</v>
-      </c>
-      <c r="I74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="7:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" s="4"/>
+      <c r="E74" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="4:9">
+      <c r="D75" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="H75" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="I75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="7:9">
-      <c r="G76" t="s">
-        <v>203</v>
-      </c>
-      <c r="H76" t="s">
-        <v>204</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="4"/>
+      <c r="E76" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="4:9">
       <c r="D77" s="4" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E77" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F77">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="H77" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I77">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="7:9">
-      <c r="G78" t="s">
-        <v>209</v>
-      </c>
-      <c r="H78" t="s">
-        <v>210</v>
-      </c>
-      <c r="I78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="5" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1"/>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C80">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="F80">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="I80">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="7:9">
-      <c r="G81" t="s">
-        <v>101</v>
-      </c>
-      <c r="H81" t="s">
-        <v>102</v>
-      </c>
-      <c r="I81">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="7:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9">
+      <c r="D82" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" t="s">
+        <v>198</v>
+      </c>
+      <c r="F82">
+        <v>53</v>
+      </c>
       <c r="G82" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="H82" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I82">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="5:9">
+      <c r="E83" t="s">
+        <v>201</v>
+      </c>
+      <c r="G83" t="s">
+        <v>225</v>
+      </c>
+      <c r="H83" t="s">
+        <v>226</v>
+      </c>
+      <c r="I83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9">
+      <c r="G84" t="s">
+        <v>227</v>
+      </c>
+      <c r="H84" t="s">
+        <v>228</v>
+      </c>
+      <c r="I84">
         <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="7:9">
-      <c r="G83" t="s">
-        <v>211</v>
-      </c>
-      <c r="H83" t="s">
-        <v>212</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9">
-      <c r="D84" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84">
-        <v>59</v>
-      </c>
-      <c r="G84" t="s">
-        <v>93</v>
-      </c>
-      <c r="H84" t="s">
-        <v>94</v>
-      </c>
-      <c r="I84">
-        <v>28</v>
       </c>
     </row>
     <row r="85" spans="7:9">
       <c r="G85" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="H85" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="I85">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="7:9">
       <c r="G86" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="H86" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="I86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="7:9">
+    <row r="87" spans="4:9">
+      <c r="D87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87">
+        <v>44</v>
+      </c>
       <c r="G87" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="H87" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="I87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="4:9">
-      <c r="D88" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="5:9">
       <c r="E88" t="s">
-        <v>149</v>
-      </c>
-      <c r="F88">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="G88" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H88" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="7:9">
       <c r="G89" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="H89" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="7:9">
       <c r="G90" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H90" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="7:9">
       <c r="G91" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H91" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="4:9">
       <c r="D92" s="4" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="E92" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="H92" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="7:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="5:9">
+      <c r="E93" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="G93" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H93" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="I93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="7:9">
-      <c r="G94" t="s">
-        <v>108</v>
-      </c>
-      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95">
+        <v>263</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="4:9">
-      <c r="D95" s="4" t="s">
+      <c r="E95" t="s">
         <v>110</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95">
+        <v>174</v>
+      </c>
+      <c r="G95" t="s">
+        <v>114</v>
+      </c>
+      <c r="H95" t="s">
+        <v>115</v>
+      </c>
+      <c r="I95">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G96" t="s">
         <v>111</v>
       </c>
-      <c r="F95">
-        <v>5</v>
-      </c>
-      <c r="G95" t="s">
-        <v>156</v>
-      </c>
-      <c r="H95" t="s">
-        <v>157</v>
-      </c>
-      <c r="I95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="7:9">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>112</v>
       </c>
-      <c r="H96" t="s">
-        <v>113</v>
-      </c>
       <c r="I96">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="7:9">
       <c r="G97" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="H97" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="I97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99">
-        <v>94</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9">
+      <c r="G98" t="s">
+        <v>244</v>
+      </c>
+      <c r="H98" t="s">
+        <v>245</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:9">
       <c r="D99" s="4" t="s">
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="E99" t="s">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="F99">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G99" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="H99" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="I99">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="7:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="5:9">
+      <c r="E100" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="G100" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H100" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="I100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="4:9">
-      <c r="D101" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E101" t="s">
-        <v>239</v>
-      </c>
-      <c r="F101">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9">
       <c r="G101" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H101" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="I101">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="7:9">
       <c r="G102" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H102" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="4:9">
+      <c r="D103" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E103" t="s">
+        <v>170</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>252</v>
+      </c>
+      <c r="H103" t="s">
+        <v>253</v>
+      </c>
+      <c r="I103">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="7:9">
-      <c r="G103" t="s">
-        <v>244</v>
-      </c>
-      <c r="H103" t="s">
-        <v>245</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="7:9">
+    <row r="104" spans="5:9">
+      <c r="E104" t="s">
+        <v>173</v>
+      </c>
       <c r="G104" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="H104" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="I104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="4:9">
-      <c r="D105" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E105" t="s">
-        <v>249</v>
-      </c>
-      <c r="F105">
-        <v>17</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9">
       <c r="G105" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H105" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I105">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="7:9">
       <c r="G106" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H106" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="7:9">
+    <row r="107" spans="4:9">
+      <c r="D107" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
       <c r="G107" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H107" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="7:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="5:9">
+      <c r="E108" t="s">
+        <v>260</v>
+      </c>
       <c r="G108" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H108" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="7:9">
       <c r="G109" t="s">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="H109" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="7:9">
+    <row r="110" spans="4:9">
+      <c r="D110" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" t="s">
+        <v>123</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
       <c r="G110" t="s">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="H110" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="I110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="7:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="5:9">
+      <c r="E111" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="G111" t="s">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="H111" t="s">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="4:9">
-      <c r="D112" s="4" t="s">
+    <row r="112" spans="7:9">
+      <c r="G112" t="s">
+        <v>263</v>
+      </c>
+      <c r="H112" t="s">
         <v>264</v>
       </c>
-      <c r="E112" t="s">
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114">
+        <v>94</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F112">
-        <v>10</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="E114" t="s">
         <v>266</v>
       </c>
-      <c r="H112" t="s">
+      <c r="F114">
+        <v>31</v>
+      </c>
+      <c r="G114" t="s">
         <v>267</v>
       </c>
-      <c r="I112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" ht="15" spans="1:9">
-      <c r="A115" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" s="17">
-        <v>4751</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E115" t="s">
-        <v>206</v>
-      </c>
-      <c r="F115">
-        <v>1392</v>
+      <c r="H114" t="s">
+        <v>268</v>
+      </c>
+      <c r="I114">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="G115" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="H115" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="I115">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="116" spans="7:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="4:9">
+      <c r="D116" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" t="s">
+        <v>274</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
       <c r="G116" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="H116" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="I116">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="7:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="5:9">
+      <c r="E117" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="G117" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H117" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="7:9">
       <c r="G118" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H118" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="4:9">
-      <c r="D119" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E119" t="s">
-        <v>172</v>
-      </c>
-      <c r="F119">
-        <v>1153</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9">
       <c r="G119" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="H119" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="I119">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="120" spans="7:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="4:9">
+      <c r="D120" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E120" t="s">
+        <v>285</v>
+      </c>
+      <c r="F120">
+        <v>17</v>
+      </c>
       <c r="G120" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="H120" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="I120">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="121" spans="7:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="5:9">
+      <c r="E121" s="10" t="s">
+        <v>288</v>
+      </c>
       <c r="G121" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="H121" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="I121">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="7:9">
       <c r="G122" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="H122" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="I122">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="4:9">
-      <c r="D123" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E123" t="s">
-        <v>169</v>
-      </c>
-      <c r="F123">
-        <v>589</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9">
       <c r="G123" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="H123" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="I123">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="124" spans="4:9">
-      <c r="D124" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E124" t="s">
-        <v>161</v>
-      </c>
-      <c r="F124">
-        <v>532</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9">
       <c r="G124" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="H124" t="s">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="I124">
-        <v>267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="7:9">
       <c r="G125" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="H125" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="I125">
-        <v>129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="7:9">
       <c r="G126" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="H126" t="s">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="I126">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="127" spans="7:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="4:9">
+      <c r="D127" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E127" t="s">
+        <v>302</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
       <c r="G127" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="I127">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="133" ht="15" spans="2:9">
-      <c r="B133" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1"/>
+    <row r="130" ht="15" spans="1:9">
+      <c r="A130" t="s">
+        <v>98</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" s="18">
+        <v>4751</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" t="s">
+        <v>238</v>
+      </c>
+      <c r="F130">
+        <v>1392</v>
+      </c>
+      <c r="G130" t="s">
+        <v>242</v>
+      </c>
+      <c r="H130" t="s">
+        <v>243</v>
+      </c>
+      <c r="I130">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G131" t="s">
+        <v>239</v>
+      </c>
+      <c r="H131" t="s">
+        <v>240</v>
+      </c>
+      <c r="I131">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="7:9">
+      <c r="G132" t="s">
+        <v>306</v>
+      </c>
+      <c r="H132" t="s">
+        <v>307</v>
+      </c>
+      <c r="I132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="7:9">
+      <c r="G133" t="s">
+        <v>308</v>
+      </c>
+      <c r="H133" t="s">
+        <v>309</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="4:9">
+      <c r="D134" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E134" t="s">
+        <v>198</v>
+      </c>
+      <c r="F134">
+        <v>1153</v>
+      </c>
+      <c r="G134" t="s">
+        <v>199</v>
+      </c>
+      <c r="H134" t="s">
+        <v>200</v>
+      </c>
+      <c r="I134">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="5:9">
+      <c r="E135" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G135" t="s">
         <v>231</v>
       </c>
-      <c r="C133" s="14">
-        <v>2280</v>
-      </c>
-      <c r="D133" s="4" t="s">
+      <c r="H135" t="s">
         <v>232</v>
       </c>
-      <c r="E133" t="s">
-        <v>233</v>
-      </c>
-      <c r="F133">
-        <v>971</v>
-      </c>
-      <c r="G133" t="s">
-        <v>236</v>
-      </c>
-      <c r="H133" t="s">
-        <v>237</v>
-      </c>
-      <c r="I133">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="134" spans="7:9">
-      <c r="G134" t="s">
-        <v>234</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="I135">
         <v>235</v>
       </c>
-      <c r="I134">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="135" spans="7:9">
-      <c r="G135" t="s">
-        <v>274</v>
-      </c>
-      <c r="H135" t="s">
-        <v>275</v>
-      </c>
-      <c r="I135">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="4:9">
-      <c r="D136" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E136" t="s">
-        <v>239</v>
-      </c>
-      <c r="F136">
-        <v>613</v>
-      </c>
+    </row>
+    <row r="136" spans="7:9">
       <c r="G136" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="H136" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="I136">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="7:9">
       <c r="G137" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="H137" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I137">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="138" spans="7:9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="4:9">
+      <c r="D138" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E138" t="s">
+        <v>194</v>
+      </c>
+      <c r="F138">
+        <v>589</v>
+      </c>
       <c r="G138" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="H138" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="I138">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="139" spans="7:9">
-      <c r="G139" t="s">
-        <v>278</v>
-      </c>
-      <c r="H139" t="s">
-        <v>279</v>
-      </c>
-      <c r="I139">
-        <v>98</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139" s="4"/>
+      <c r="E139" s="10" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="4:9">
       <c r="D140" s="4" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="E140" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="F140">
-        <v>295</v>
+        <v>532</v>
       </c>
       <c r="G140" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="H140" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="I140">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="141" spans="7:9">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="5:9">
+      <c r="E141" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="G141" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="H141" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="I141">
-        <v>57</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="7:9">
       <c r="G142" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="H142" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="I142">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="7:9">
       <c r="G143" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="H143" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="I143">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="144" spans="7:9">
-      <c r="G144" t="s">
-        <v>282</v>
-      </c>
-      <c r="H144" t="s">
-        <v>283</v>
-      </c>
-      <c r="I144">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="4:9">
-      <c r="D145" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E145" t="s">
-        <v>285</v>
-      </c>
-      <c r="F145">
-        <v>142</v>
-      </c>
-      <c r="G145" t="s">
-        <v>286</v>
-      </c>
-      <c r="H145" t="s">
-        <v>287</v>
-      </c>
-      <c r="I145">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="146" spans="7:9">
-      <c r="G146" t="s">
-        <v>288</v>
-      </c>
-      <c r="H146" t="s">
-        <v>289</v>
-      </c>
-      <c r="I146">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="7:9">
-      <c r="G147" t="s">
-        <v>290</v>
-      </c>
-      <c r="H147" t="s">
-        <v>291</v>
-      </c>
-      <c r="I147">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="7:9">
-      <c r="G148" t="s">
-        <v>292</v>
-      </c>
-      <c r="H148" t="s">
-        <v>293</v>
-      </c>
-      <c r="I148">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" ht="15" spans="2:9">
-      <c r="B153" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C153" s="14">
-        <v>1470</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E153" t="s">
-        <v>296</v>
-      </c>
-      <c r="F153">
-        <v>1040</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" ht="15" spans="2:9">
+      <c r="B149" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="17">
+        <v>2280</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E149" t="s">
+        <v>266</v>
+      </c>
+      <c r="F149">
+        <v>971</v>
+      </c>
+      <c r="G149" t="s">
+        <v>271</v>
+      </c>
+      <c r="H149" t="s">
+        <v>272</v>
+      </c>
+      <c r="I149">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G150" t="s">
+        <v>267</v>
+      </c>
+      <c r="H150" t="s">
+        <v>268</v>
+      </c>
+      <c r="I150">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="7:9">
+      <c r="G151" t="s">
+        <v>312</v>
+      </c>
+      <c r="H151" t="s">
+        <v>313</v>
+      </c>
+      <c r="I151">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="4:9">
+      <c r="D152" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E152" t="s">
+        <v>274</v>
+      </c>
+      <c r="F152">
+        <v>613</v>
+      </c>
+      <c r="G152" t="s">
+        <v>278</v>
+      </c>
+      <c r="H152" t="s">
+        <v>279</v>
+      </c>
+      <c r="I152">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="5:9">
+      <c r="E153" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="G153" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="H153" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I153">
-        <v>958</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="7:9">
       <c r="G154" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="H154" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="I154">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="7:9">
       <c r="G155" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="H155" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="I155">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="156" spans="7:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="4:9">
+      <c r="D156" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E156" t="s">
+        <v>285</v>
+      </c>
+      <c r="F156">
+        <v>295</v>
+      </c>
       <c r="G156" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H156" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="I156">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="4:9">
-      <c r="D157" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E157" t="s">
-        <v>306</v>
-      </c>
-      <c r="F157">
-        <v>219</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" spans="5:9">
+      <c r="E157" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="G157" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="H157" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="I157">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="7:9">
       <c r="G158" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="H158" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="I158">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="7:9">
       <c r="G159" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H159" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="I159">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="7:9">
       <c r="G160" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H160" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="I160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="7:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="4:9">
+      <c r="D161" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E161" t="s">
+        <v>323</v>
+      </c>
+      <c r="F161">
+        <v>142</v>
+      </c>
       <c r="G161" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H161" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="4:9">
-      <c r="D162" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E162" t="s">
-        <v>318</v>
-      </c>
-      <c r="F162">
-        <v>117</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="5:9">
+      <c r="E162" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="G162" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H162" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="I162">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="163" spans="4:9">
-      <c r="D163" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E163" t="s">
-        <v>322</v>
-      </c>
-      <c r="F163">
-        <v>43</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="7:9">
       <c r="G163" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H163" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I163">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="7:9">
       <c r="G164" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H164" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="I164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" s="1" customFormat="1"/>
-    <row r="166" ht="15" spans="1:9">
-      <c r="A166" t="s">
-        <v>105</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C166" s="14">
-        <v>4774</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E166" t="s">
-        <v>233</v>
-      </c>
-      <c r="F166">
-        <v>1615</v>
-      </c>
-      <c r="G166" t="s">
-        <v>236</v>
-      </c>
-      <c r="H166" t="s">
-        <v>237</v>
-      </c>
-      <c r="I166">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="167" spans="7:9">
-      <c r="G167" t="s">
-        <v>234</v>
-      </c>
-      <c r="H167" t="s">
-        <v>235</v>
-      </c>
-      <c r="I167">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="168" spans="7:9">
-      <c r="G168" t="s">
-        <v>274</v>
-      </c>
-      <c r="H168" t="s">
-        <v>275</v>
-      </c>
-      <c r="I168">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="7:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" ht="15" spans="2:9">
+      <c r="B169" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C169" s="17">
+        <v>1470</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169">
+        <v>1040</v>
+      </c>
       <c r="G169" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H169" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="I169">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="4:9">
-      <c r="D171" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E171" t="s">
-        <v>239</v>
-      </c>
-      <c r="F171">
-        <v>1575</v>
-      </c>
+        <v>958</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9">
+      <c r="B170" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G170" t="s">
+        <v>339</v>
+      </c>
+      <c r="H170" t="s">
+        <v>340</v>
+      </c>
+      <c r="I170">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="7:9">
       <c r="G171" t="s">
-        <v>242</v>
+        <v>341</v>
       </c>
       <c r="H171" t="s">
-        <v>243</v>
+        <v>342</v>
       </c>
       <c r="I171">
-        <v>539</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="7:9">
       <c r="G172" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
       <c r="H172" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="I172">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="173" spans="7:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="4:9">
+      <c r="D173" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E173" t="s">
+        <v>346</v>
+      </c>
+      <c r="F173">
+        <v>219</v>
+      </c>
       <c r="G173" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="H173" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="I173">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="174" spans="7:9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="174" spans="5:9">
+      <c r="E174" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G174" t="s">
-        <v>244</v>
+        <v>350</v>
       </c>
       <c r="H174" t="s">
-        <v>245</v>
+        <v>351</v>
       </c>
       <c r="I174">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="175" spans="4:9">
-      <c r="D175" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E175" t="s">
-        <v>249</v>
-      </c>
-      <c r="F175">
-        <v>925</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="7:9">
       <c r="G175" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="H175" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="I175">
-        <v>439</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="7:9">
       <c r="G176" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="H176" t="s">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="I176">
-        <v>196</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="7:9">
       <c r="G177" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="H177" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="I177">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="178" spans="7:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="4:9">
+      <c r="D178" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E178" t="s">
+        <v>359</v>
+      </c>
+      <c r="F178">
+        <v>117</v>
+      </c>
       <c r="G178" t="s">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="H178" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="I178">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="179" spans="4:9">
-      <c r="D179" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E179" t="s">
-        <v>330</v>
-      </c>
-      <c r="F179">
-        <v>287</v>
-      </c>
-      <c r="G179" t="s">
-        <v>331</v>
-      </c>
-      <c r="H179" t="s">
-        <v>332</v>
-      </c>
-      <c r="I179">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="180" spans="7:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5">
+      <c r="D179" s="4"/>
+      <c r="E179" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="180" spans="4:9">
+      <c r="D180" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E180" t="s">
+        <v>364</v>
+      </c>
+      <c r="F180">
+        <v>43</v>
+      </c>
       <c r="G180" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="H180" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="I180">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="181" spans="7:9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="5:9">
+      <c r="E181" s="10" t="s">
+        <v>367</v>
+      </c>
       <c r="G181" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="H181" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="I181">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="182" spans="7:9">
-      <c r="G182" t="s">
-        <v>337</v>
-      </c>
-      <c r="H182" t="s">
-        <v>338</v>
-      </c>
-      <c r="I182">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="183" ht="15" spans="2:9">
-      <c r="B183" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C183" s="14">
-        <v>2975</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" s="1" customFormat="1"/>
+    <row r="183" ht="15" spans="1:9">
+      <c r="A183" t="s">
+        <v>116</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C183" s="17">
+        <v>4774</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="E183" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="F183">
-        <v>920</v>
+        <v>1615</v>
       </c>
       <c r="G183" t="s">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="H183" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="I183">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="184" spans="7:9">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9">
+      <c r="B184" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="G184" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="H184" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="I184">
-        <v>153</v>
+        <v>609</v>
       </c>
     </row>
     <row r="185" spans="7:9">
       <c r="G185" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="H185" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="I185">
-        <v>132</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="7:9">
       <c r="G186" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="H186" t="s">
-        <v>196</v>
+        <v>371</v>
       </c>
       <c r="I186">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="187" spans="4:9">
-      <c r="D187" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E187" t="s">
-        <v>206</v>
-      </c>
-      <c r="F187" s="19">
-        <v>619</v>
-      </c>
-      <c r="G187" t="s">
-        <v>207</v>
-      </c>
-      <c r="H187" t="s">
-        <v>208</v>
-      </c>
-      <c r="I187">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="188" spans="7:9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="4:9">
+      <c r="D188" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E188" t="s">
+        <v>274</v>
+      </c>
+      <c r="F188">
+        <v>1575</v>
+      </c>
       <c r="G188" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="H188" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="I188">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="7:9">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="189" spans="5:9">
+      <c r="E189" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="G189" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="H189" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="I189">
-        <v>4</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="7:9">
       <c r="G190" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="H190" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="I190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="4:9">
-      <c r="D191" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E191" t="s">
-        <v>169</v>
-      </c>
-      <c r="F191" s="19">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="191" spans="7:9">
+      <c r="G191" t="s">
+        <v>280</v>
+      </c>
+      <c r="H191" t="s">
+        <v>281</v>
+      </c>
+      <c r="I191">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192" spans="4:9">
+      <c r="D192" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E192" t="s">
+        <v>285</v>
+      </c>
+      <c r="F192">
+        <v>925</v>
+      </c>
+      <c r="G192" t="s">
         <v>318</v>
       </c>
-      <c r="G191" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H191" t="s">
-        <v>169</v>
-      </c>
-      <c r="I191" s="19">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="192" spans="4:9">
-      <c r="D192" t="s">
-        <v>341</v>
-      </c>
-      <c r="E192" t="s">
-        <v>342</v>
-      </c>
-      <c r="F192" s="19">
-        <v>257</v>
-      </c>
-      <c r="G192" t="s">
-        <v>343</v>
-      </c>
       <c r="H192" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="I192">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="193" spans="7:9">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193" spans="5:9">
+      <c r="E193" s="10" t="s">
+        <v>288</v>
+      </c>
       <c r="G193" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="H193" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="I193">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="194" ht="15" spans="2:9">
-      <c r="B194" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C194" s="14">
-        <v>2386</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E194" t="s">
-        <v>296</v>
-      </c>
-      <c r="F194" s="19">
-        <v>916</v>
-      </c>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="7:9">
       <c r="G194" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="H194" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I194">
-        <v>772</v>
+        <v>119</v>
       </c>
     </row>
     <row r="195" spans="7:9">
       <c r="G195" t="s">
+        <v>286</v>
+      </c>
+      <c r="H195" t="s">
+        <v>287</v>
+      </c>
+      <c r="I195">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="4:9">
+      <c r="D196" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E196" t="s">
+        <v>373</v>
+      </c>
+      <c r="F196">
+        <v>287</v>
+      </c>
+      <c r="G196" t="s">
+        <v>374</v>
+      </c>
+      <c r="H196" t="s">
+        <v>375</v>
+      </c>
+      <c r="I196">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="197" spans="5:9">
+      <c r="E197" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="G197" t="s">
+        <v>377</v>
+      </c>
+      <c r="H197" t="s">
+        <v>378</v>
+      </c>
+      <c r="I197">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" spans="7:9">
+      <c r="G198" t="s">
+        <v>379</v>
+      </c>
+      <c r="H198" t="s">
+        <v>380</v>
+      </c>
+      <c r="I198">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199" spans="7:9">
+      <c r="G199" t="s">
+        <v>381</v>
+      </c>
+      <c r="H199" t="s">
+        <v>382</v>
+      </c>
+      <c r="I199">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="200" ht="15" spans="2:9">
+      <c r="B200" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C200" s="17">
+        <v>2975</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E200" t="s">
+        <v>198</v>
+      </c>
+      <c r="F200">
+        <v>920</v>
+      </c>
+      <c r="G200" t="s">
+        <v>199</v>
+      </c>
+      <c r="H200" t="s">
+        <v>200</v>
+      </c>
+      <c r="I200">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9">
+      <c r="B201" t="s">
+        <v>131</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G201" t="s">
+        <v>231</v>
+      </c>
+      <c r="H201" t="s">
+        <v>232</v>
+      </c>
+      <c r="I201">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="202" spans="7:9">
+      <c r="G202" t="s">
+        <v>310</v>
+      </c>
+      <c r="H202" t="s">
+        <v>311</v>
+      </c>
+      <c r="I202">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="203" spans="7:9">
+      <c r="G203" t="s">
+        <v>227</v>
+      </c>
+      <c r="H203" t="s">
+        <v>228</v>
+      </c>
+      <c r="I203">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="4:9">
+      <c r="D204" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E204" t="s">
+        <v>238</v>
+      </c>
+      <c r="F204" s="4">
+        <v>619</v>
+      </c>
+      <c r="G204" t="s">
+        <v>239</v>
+      </c>
+      <c r="H204" t="s">
+        <v>240</v>
+      </c>
+      <c r="I204">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="205" spans="5:9">
+      <c r="E205" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G205" t="s">
+        <v>242</v>
+      </c>
+      <c r="H205" t="s">
+        <v>243</v>
+      </c>
+      <c r="I205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="7:9">
+      <c r="G206" t="s">
+        <v>308</v>
+      </c>
+      <c r="H206" t="s">
+        <v>309</v>
+      </c>
+      <c r="I206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="7:9">
+      <c r="G207" t="s">
+        <v>383</v>
+      </c>
+      <c r="H207" t="s">
+        <v>384</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="4:9">
+      <c r="D208" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E208" t="s">
+        <v>194</v>
+      </c>
+      <c r="F208" s="4">
+        <v>318</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H208" t="s">
+        <v>194</v>
+      </c>
+      <c r="I208" s="4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="209" spans="4:9">
+      <c r="D209" s="4"/>
+      <c r="E209" t="s">
+        <v>196</v>
+      </c>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="I209" s="4"/>
+    </row>
+    <row r="210" spans="4:9">
+      <c r="D210" t="s">
+        <v>385</v>
+      </c>
+      <c r="E210" t="s">
+        <v>386</v>
+      </c>
+      <c r="F210" s="4">
+        <v>257</v>
+      </c>
+      <c r="G210" t="s">
+        <v>387</v>
+      </c>
+      <c r="H210" t="s">
+        <v>388</v>
+      </c>
+      <c r="I210">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="5:9">
+      <c r="E211" t="s">
+        <v>389</v>
+      </c>
+      <c r="G211" t="s">
+        <v>390</v>
+      </c>
+      <c r="H211" t="s">
+        <v>391</v>
+      </c>
+      <c r="I211">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="212" ht="15" spans="2:9">
+      <c r="B212" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C212" s="17">
+        <v>2386</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E212" t="s">
+        <v>334</v>
+      </c>
+      <c r="F212" s="4">
+        <v>916</v>
+      </c>
+      <c r="G212" t="s">
+        <v>335</v>
+      </c>
+      <c r="H212" t="s">
+        <v>336</v>
+      </c>
+      <c r="I212">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="B213" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G213" t="s">
+        <v>339</v>
+      </c>
+      <c r="H213" t="s">
+        <v>340</v>
+      </c>
+      <c r="I213">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="7:9">
+      <c r="G214" t="s">
+        <v>341</v>
+      </c>
+      <c r="H214" t="s">
+        <v>342</v>
+      </c>
+      <c r="I214">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="215" spans="7:9">
+      <c r="G215" t="s">
+        <v>343</v>
+      </c>
+      <c r="H215" t="s">
+        <v>344</v>
+      </c>
+      <c r="I215">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="4:9">
+      <c r="D216" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E216" t="s">
+        <v>346</v>
+      </c>
+      <c r="F216" s="4">
+        <v>902</v>
+      </c>
+      <c r="G216" t="s">
+        <v>347</v>
+      </c>
+      <c r="H216" t="s">
+        <v>348</v>
+      </c>
+      <c r="I216">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="217" spans="5:9">
+      <c r="E217" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F217" s="4"/>
+      <c r="G217" t="s">
+        <v>350</v>
+      </c>
+      <c r="H217" t="s">
+        <v>351</v>
+      </c>
+      <c r="I217">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="218" spans="6:9">
+      <c r="F218" s="4"/>
+      <c r="G218" t="s">
+        <v>352</v>
+      </c>
+      <c r="H218" t="s">
+        <v>353</v>
+      </c>
+      <c r="I218">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="219" spans="6:9">
+      <c r="F219" s="4"/>
+      <c r="G219" t="s">
+        <v>392</v>
+      </c>
+      <c r="H219" t="s">
+        <v>393</v>
+      </c>
+      <c r="I219">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="4:9">
+      <c r="D220" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E220" t="s">
+        <v>364</v>
+      </c>
+      <c r="F220" s="4">
         <v>299</v>
       </c>
-      <c r="H195" t="s">
-        <v>300</v>
-      </c>
-      <c r="I195">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="196" spans="7:9">
-      <c r="G196" t="s">
-        <v>301</v>
-      </c>
-      <c r="H196" t="s">
-        <v>302</v>
-      </c>
-      <c r="I196">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="197" spans="7:9">
-      <c r="G197" t="s">
-        <v>303</v>
-      </c>
-      <c r="H197" t="s">
-        <v>304</v>
-      </c>
-      <c r="I197">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="4:9">
-      <c r="D198" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E198" t="s">
-        <v>306</v>
-      </c>
-      <c r="F198" s="19">
-        <v>902</v>
-      </c>
-      <c r="G198" t="s">
-        <v>307</v>
-      </c>
-      <c r="H198" t="s">
-        <v>308</v>
-      </c>
-      <c r="I198">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="199" spans="6:9">
-      <c r="F199" s="19"/>
-      <c r="G199" t="s">
-        <v>309</v>
-      </c>
-      <c r="H199" t="s">
-        <v>310</v>
-      </c>
-      <c r="I199">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="200" spans="6:9">
-      <c r="F200" s="19"/>
-      <c r="G200" t="s">
-        <v>311</v>
-      </c>
-      <c r="H200" t="s">
-        <v>312</v>
-      </c>
-      <c r="I200">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="201" spans="6:9">
-      <c r="F201" s="19"/>
-      <c r="G201" t="s">
-        <v>347</v>
-      </c>
-      <c r="H201" t="s">
-        <v>348</v>
-      </c>
-      <c r="I201">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="4:9">
-      <c r="D202" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E202" t="s">
-        <v>322</v>
-      </c>
-      <c r="F202" s="19">
+      <c r="G220" t="s">
+        <v>365</v>
+      </c>
+      <c r="H220" t="s">
+        <v>366</v>
+      </c>
+      <c r="I220">
         <v>299</v>
       </c>
-      <c r="G202" t="s">
-        <v>323</v>
-      </c>
-      <c r="H202" t="s">
-        <v>324</v>
-      </c>
-      <c r="I202">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="203" spans="4:9">
-      <c r="D203" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E203" t="s">
-        <v>318</v>
-      </c>
-      <c r="F203" s="19">
+    </row>
+    <row r="221" spans="4:6">
+      <c r="D221" s="4"/>
+      <c r="E221" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" spans="4:9">
+      <c r="D222" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E222" t="s">
+        <v>359</v>
+      </c>
+      <c r="F222" s="4">
         <v>130</v>
       </c>
-      <c r="G203" t="s">
-        <v>319</v>
-      </c>
-      <c r="H203" t="s">
-        <v>320</v>
-      </c>
-      <c r="I203">
+      <c r="G222" t="s">
+        <v>360</v>
+      </c>
+      <c r="H222" t="s">
+        <v>361</v>
+      </c>
+      <c r="I222">
         <v>129</v>
       </c>
     </row>
-    <row r="204" spans="6:9">
-      <c r="F204" s="19"/>
-      <c r="G204" t="s">
-        <v>349</v>
-      </c>
-      <c r="H204" t="s">
-        <v>350</v>
-      </c>
-      <c r="I204">
+    <row r="223" spans="5:9">
+      <c r="E223" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F223" s="4"/>
+      <c r="G223" t="s">
+        <v>394</v>
+      </c>
+      <c r="H223" t="s">
+        <v>395</v>
+      </c>
+      <c r="I223">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="6:6">
-      <c r="F205" s="19"/>
+    <row r="224" spans="6:6">
+      <c r="F224" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
